--- a/Datasets/INEGI/TRANSFERENCIA.xlsx
+++ b/Datasets/INEGI/TRANSFERENCIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCCS\01_Dmine\Datasets\INEGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7F84FD07-2AA7-4DCD-AD7B-E83A9026D798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TR_CNGMD15_M6_P8_1" sheetId="2" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'(3)'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TR_CNGMD15_M6_P8_1!$A$1:$AB$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3455,7 +3456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3787,7 +3788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14018,20 +14019,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB1"/>
+  <autoFilter ref="A1:AB1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19433,14 +19434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24341,7 +24342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28409,14 +28410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32472,10 +32473,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
